--- a/AnalizPdvBundle/Resources/templateAnaliz/AnalizPDV_DiffDate.xlsx
+++ b/AnalizPdvBundle/Resources/templateAnaliz/AnalizPDV_DiffDate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OpenServer525\domains\AnalizPDV\web\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OpenServer525\domains\AnalizPDV\src\AnalizPdvBundle\Resources\templateAnaliz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9300" windowWidth="14370" windowHeight="6240" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="12000" windowWidth="14370" windowHeight="6240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="read me" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t>месяц</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>Налоговый обязательства  Список налоговых накладных из ЕРПН, срок регистрации которых более 15 дней от даты создания, НЕ включенных в реестр филиала</t>
+  </si>
+  <si>
+    <t>Сума ПДВ по НН</t>
   </si>
 </sst>
 </file>
@@ -255,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -286,6 +289,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -611,12 +617,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -682,7 +688,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:J3"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,71 +709,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="22" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="23" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="11"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="20"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="21"/>
       <c r="H3" s="10" t="s">
         <v>7</v>
       </c>
@@ -777,9 +783,9 @@
       <c r="J3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
@@ -811,108 +817,132 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="14" width="14.140625" style="4" customWidth="1"/>
-    <col min="15" max="17" width="16.7109375" style="4" customWidth="1"/>
+    <col min="3" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="14.140625" style="4" customWidth="1"/>
+    <col min="18" max="20" width="16.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
       <c r="M1" s="12"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+    </row>
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="I2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="J2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
+      <c r="K2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="19"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
       <c r="Q2" s="13"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
       <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="A1:G1"/>
+  <mergeCells count="16">
+    <mergeCell ref="P2:P3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A1:L1"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -923,7 +953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3:J3"/>
     </sheetView>
   </sheetViews>
@@ -939,67 +969,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="22" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="18"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="14" t="s">
         <v>7</v>
       </c>
@@ -1009,9 +1039,9 @@
       <c r="J3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
